--- a/Case/ApiAuto.xlsx
+++ b/Case/ApiAuto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>case编号</t>
   </si>
@@ -48,25 +48,31 @@
     <t>test_001</t>
   </si>
   <si>
-    <t>登录</t>
+    <t>验证码登录</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>url002</t>
+    <t>api/v1/login/loginWithSms</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{"mobile":"11111","captchaCode":"9527","mobileCode":"952700"}</t>
+    <t>{"mobile":"11111","captchaCode":"111","mobileCode":"111"}</t>
+  </si>
+  <si>
+    <t>test_002</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>test_003</t>
   </si>
   <si>
     <t>write</t>
@@ -99,21 +105,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +141,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -142,33 +209,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,53 +235,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,11 +451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,6 +471,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,36 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -542,6 +539,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,145 +556,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,14 +1059,14 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="2" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="8.75" customWidth="1"/>
   </cols>
@@ -1123,28 +1129,34 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="7:7">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4"/>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="url002"/>
+    <hyperlink ref="D2" r:id="rId1" display="api/v1/login/loginWithSms"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Case/ApiAuto.xlsx
+++ b/Case/ApiAuto.xlsx
@@ -60,7 +60,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>{"mobile":"11111","captchaCode":"111","mobileCode":"111"}</t>
+    <t>{"mobile":"15801081111","captchaCode":"9527","mobileCode":"952700"}</t>
   </si>
   <si>
     <t>test_002</t>
@@ -112,6 +112,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -120,7 +127,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,60 +149,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +179,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -241,6 +210,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -257,25 +257,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,31 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,121 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +448,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,30 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,130 +568,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1149,7 +1149,6 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4"/>
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>

--- a/Case/ApiAuto.xlsx
+++ b/Case/ApiAuto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="20025" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1-&gt;&gt;接口测试数据" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>case编号</t>
   </si>
@@ -27,10 +27,13 @@
     <t>是否执行</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>method</t>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>测试地址url</t>
+  </si>
+  <si>
+    <t>执行方法method</t>
   </si>
   <si>
     <t>data</t>
@@ -39,12 +42,21 @@
     <t>cookie操作</t>
   </si>
   <si>
+    <t>预期执行判断方法</t>
+  </si>
+  <si>
     <t>预期结果</t>
   </si>
   <si>
     <t>实际结果</t>
   </si>
   <si>
+    <t>返回数据</t>
+  </si>
+  <si>
+    <t>header操作</t>
+  </si>
+  <si>
     <t>test_001</t>
   </si>
   <si>
@@ -60,22 +72,124 @@
     <t>post</t>
   </si>
   <si>
-    <t>{"mobile":"15801081111","captchaCode":"9527","mobileCode":"952700"}</t>
+    <t>{"mobile":"15901084142","captchaCode":"9527","mobileCode":"952700"}</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>resultCode_errMsg</t>
+  </si>
+  <si>
+    <t>测试通过</t>
   </si>
   <si>
     <t>test_002</t>
   </si>
   <si>
+    <t>查询商品到得商品</t>
+  </si>
+  <si>
+    <t>api/v1/goods/getGoodsDetail/18404</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>test_003</t>
+  </si>
+  <si>
+    <t>查询不存在商品</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>test_003</t>
-  </si>
-  <si>
-    <t>write</t>
+    <t>api/v1/goods/getGoodsDetail/18404111</t>
+  </si>
+  <si>
+    <t>errMsg</t>
+  </si>
+  <si>
+    <t>test_004</t>
+  </si>
+  <si>
+    <t>提交商品</t>
+  </si>
+  <si>
+    <t>api/v1/order/submitOrder</t>
+  </si>
+  <si>
+    <t>{"addrId":118402,"goodsId":"18404","amount":100,"goodsCount":1,"preferType":0}</t>
+  </si>
+  <si>
+    <t>test_005</t>
+  </si>
+  <si>
+    <t>查询全部订单</t>
+  </si>
+  <si>
+    <t>test_001&gt;content:orderID:id</t>
+  </si>
+  <si>
+    <t>api/v1/order/myOrderList?</t>
+  </si>
+  <si>
+    <t>/api/v1/portal/portalIndex?</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "result": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "api/v1/login/loginWithSms": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "resultCode": 20001,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "errMsg": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "content": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "userId": 1916250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "api/v1/portal/portalIndex?": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "resultCode": 2000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
@@ -83,12 +197,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +211,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Droid Sans Mono Slashed"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF9876AA"/>
+      <name val="Droid Sans Mono Slashed"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -104,6 +230,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -112,22 +259,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,101 +349,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,187 +389,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +580,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,21 +627,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,15 +663,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -553,159 +685,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,106 +1198,251 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="35.75" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="38.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="api/v1/login/loginWithSms"/>
+    <hyperlink ref="E2" r:id="rId1" display="api/v1/login/loginWithSms"/>
+    <hyperlink ref="E3" r:id="rId1" display="api/v1/goods/getGoodsDetail/18404"/>
+    <hyperlink ref="E4" r:id="rId1" display="api/v1/goods/getGoodsDetail/18404111"/>
+    <hyperlink ref="E5" r:id="rId1" display="api/v1/order/submitOrder"/>
+    <hyperlink ref="E6" r:id="rId1" display="api/v1/order/myOrderList?"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1166,14 +1453,125 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
